--- a/erp/tests/files/sales/invoices_mixed.xlsx
+++ b/erp/tests/files/sales/invoices_mixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp Pavilion\Documents\Tut y cursos\CS50 - Intro Web Programming\Final Project\sales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp Pavilion\Documents\Tut y cursos\CS50 - Intro Web Programming\Final Project\sales\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F3DC31-E80B-4C8B-8342-0C15826C9239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE677EE-E0F3-4BFB-88E5-1E60626B3AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8175" yWindow="1080" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>20361382480</v>
       </c>
       <c r="F8">
-        <v>20999999999</v>
+        <v>99999999999</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -758,7 +758,7 @@
         <v>20361382480</v>
       </c>
       <c r="F9">
-        <v>20999999999</v>
+        <v>99999999999</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
